--- a/Code/Results/Cases/Case_1_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.53368042231716</v>
+        <v>15.90384434493724</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.271082347175906</v>
+        <v>3.103572750118113</v>
       </c>
       <c r="E2">
-        <v>19.70830018539295</v>
+        <v>24.05113964721559</v>
       </c>
       <c r="F2">
-        <v>18.40204002246795</v>
+        <v>18.36040925798012</v>
       </c>
       <c r="G2">
-        <v>24.67328518092353</v>
+        <v>19.59819184780265</v>
       </c>
       <c r="H2">
-        <v>7.694537719309241</v>
+        <v>11.30564026009323</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.882673665074207</v>
+        <v>8.083661080885756</v>
       </c>
       <c r="M2">
-        <v>11.3879732361957</v>
+        <v>14.57929188242424</v>
       </c>
       <c r="N2">
-        <v>14.96356168675924</v>
+        <v>19.35730269148822</v>
       </c>
       <c r="O2">
-        <v>13.60225259466693</v>
+        <v>16.04049802537432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.78685494604935</v>
+        <v>15.74027972872933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.119432888727207</v>
+        <v>3.046928811683786</v>
       </c>
       <c r="E3">
-        <v>19.45693536247878</v>
+        <v>24.01784591639422</v>
       </c>
       <c r="F3">
-        <v>17.41260055742674</v>
+        <v>18.1752103667262</v>
       </c>
       <c r="G3">
-        <v>23.11494046733355</v>
+        <v>19.1616636218117</v>
       </c>
       <c r="H3">
-        <v>7.517932443737774</v>
+        <v>11.31059940016692</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.440670952041352</v>
+        <v>7.987669091103283</v>
       </c>
       <c r="M3">
-        <v>10.9061447170438</v>
+        <v>14.49494885755195</v>
       </c>
       <c r="N3">
-        <v>14.89555354516855</v>
+        <v>19.36571072732071</v>
       </c>
       <c r="O3">
-        <v>13.01597294257064</v>
+        <v>15.97497286521739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.3114380306127</v>
+        <v>15.64156227337502</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.022088231406699</v>
+        <v>3.011120286658736</v>
       </c>
       <c r="E4">
-        <v>19.30404743940504</v>
+        <v>23.99978604196047</v>
       </c>
       <c r="F4">
-        <v>16.79021275140857</v>
+        <v>18.06654879506367</v>
       </c>
       <c r="G4">
-        <v>22.123186510254</v>
+        <v>18.89634775773411</v>
       </c>
       <c r="H4">
-        <v>7.413086275755341</v>
+        <v>11.31600835068109</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.155235558057338</v>
+        <v>7.928894326876406</v>
       </c>
       <c r="M4">
-        <v>10.60208939682622</v>
+        <v>14.44466226350906</v>
       </c>
       <c r="N4">
-        <v>14.85833791921676</v>
+        <v>19.3732801117641</v>
       </c>
       <c r="O4">
-        <v>12.65386982881713</v>
+        <v>15.93922921968092</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.11368612635582</v>
+        <v>15.60180526187795</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.981382586001198</v>
+        <v>2.99627903933258</v>
       </c>
       <c r="E5">
-        <v>19.24219391928183</v>
+        <v>23.99303325685025</v>
       </c>
       <c r="F5">
-        <v>16.5331825401602</v>
+        <v>18.02359142012745</v>
       </c>
       <c r="G5">
-        <v>21.71058591089235</v>
+        <v>18.78910173280559</v>
       </c>
       <c r="H5">
-        <v>7.371301328472027</v>
+        <v>11.31880718484399</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.035433205555315</v>
+        <v>7.905007395738019</v>
       </c>
       <c r="M5">
-        <v>10.47628967138237</v>
+        <v>14.42456244208276</v>
       </c>
       <c r="N5">
-        <v>14.84431184977535</v>
+        <v>19.37697210017775</v>
       </c>
       <c r="O5">
-        <v>12.50600263963358</v>
+        <v>15.92580431028496</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.08061439826331</v>
+        <v>15.59523326973685</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.974561704960769</v>
+        <v>2.99379991732151</v>
       </c>
       <c r="E6">
-        <v>19.23195281531196</v>
+        <v>23.99194882712109</v>
       </c>
       <c r="F6">
-        <v>16.49030840674589</v>
+        <v>18.01653977979324</v>
       </c>
       <c r="G6">
-        <v>21.64157473006161</v>
+        <v>18.77135188774542</v>
       </c>
       <c r="H6">
-        <v>7.364420853416035</v>
+        <v>11.31930784457573</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.015331231774832</v>
+        <v>7.901045536752958</v>
       </c>
       <c r="M6">
-        <v>10.45529168506952</v>
+        <v>14.42124901122462</v>
       </c>
       <c r="N6">
-        <v>14.84205156894327</v>
+        <v>19.37762189945694</v>
       </c>
       <c r="O6">
-        <v>12.48143795258693</v>
+        <v>15.9236443441306</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.30878701205489</v>
+        <v>15.64102413559859</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.02154341991762</v>
+        <v>3.010921127324259</v>
       </c>
       <c r="E7">
-        <v>19.30321132910249</v>
+        <v>23.99969250487188</v>
       </c>
       <c r="F7">
-        <v>16.78675963826965</v>
+        <v>18.06596403204027</v>
       </c>
       <c r="G7">
-        <v>22.11765575979026</v>
+        <v>18.89489761584381</v>
       </c>
       <c r="H7">
-        <v>7.412518891802882</v>
+        <v>11.31604368900212</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.153633902180155</v>
+        <v>7.928571889040463</v>
       </c>
       <c r="M7">
-        <v>10.60040024864758</v>
+        <v>14.44438958203934</v>
       </c>
       <c r="N7">
-        <v>14.85814414850509</v>
+        <v>19.37332744104917</v>
       </c>
       <c r="O7">
-        <v>12.65187656640619</v>
+        <v>15.93904353238325</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.27979764359809</v>
+        <v>15.8471166059098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.219686602884741</v>
+        <v>3.084261174704217</v>
       </c>
       <c r="E8">
-        <v>19.62137917196493</v>
+        <v>24.03917010556239</v>
       </c>
       <c r="F8">
-        <v>18.0641507569581</v>
+        <v>18.29553692024085</v>
       </c>
       <c r="G8">
-        <v>24.14338755161614</v>
+        <v>19.44722664546512</v>
       </c>
       <c r="H8">
-        <v>7.632922363593255</v>
+        <v>11.30685970870024</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.733209945858177</v>
+        <v>8.050542570717068</v>
       </c>
       <c r="M8">
-        <v>11.22363808717504</v>
+        <v>14.54990821463779</v>
       </c>
       <c r="N8">
-        <v>14.93916868854158</v>
+        <v>19.35970359116248</v>
       </c>
       <c r="O8">
-        <v>13.40067307440463</v>
+        <v>16.01698100336662</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.04218105211042</v>
+        <v>16.26302688203869</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.573713002776312</v>
+        <v>3.219513335942231</v>
       </c>
       <c r="E9">
-        <v>20.25311476700395</v>
+        <v>24.13514709107869</v>
       </c>
       <c r="F9">
-        <v>20.43929956232479</v>
+        <v>18.78334674531012</v>
       </c>
       <c r="G9">
-        <v>27.8755705179644</v>
+        <v>20.54370853690504</v>
       </c>
       <c r="H9">
-        <v>8.091899920941144</v>
+        <v>11.30758921775757</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.756884284595202</v>
+        <v>8.290031922164227</v>
       </c>
       <c r="M9">
-        <v>12.37428439800319</v>
+        <v>14.76805025609931</v>
       </c>
       <c r="N9">
-        <v>15.13416475329933</v>
+        <v>19.35198520176308</v>
       </c>
       <c r="O9">
-        <v>14.84352697144854</v>
+        <v>16.20482648426681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.24222551871694</v>
+        <v>16.57330286342478</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.811762296622841</v>
+        <v>3.313155632841554</v>
       </c>
       <c r="E10">
-        <v>20.71711267993099</v>
+        <v>24.21650483038011</v>
       </c>
       <c r="F10">
-        <v>22.09304874852376</v>
+        <v>19.16121779129206</v>
       </c>
       <c r="G10">
-        <v>30.48974339368476</v>
+        <v>21.34688898336983</v>
       </c>
       <c r="H10">
-        <v>8.443152166645181</v>
+        <v>11.31951020474636</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.438931882695753</v>
+        <v>8.464840702678739</v>
       </c>
       <c r="M10">
-        <v>13.16894929668057</v>
+        <v>14.93421552576388</v>
       </c>
       <c r="N10">
-        <v>15.29949016285207</v>
+        <v>19.35775878306458</v>
       </c>
       <c r="O10">
-        <v>15.87831679828546</v>
+        <v>16.3632587653782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.76636945681892</v>
+        <v>16.71495200648786</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.91512399135526</v>
+        <v>3.354415500595632</v>
       </c>
       <c r="E11">
-        <v>20.92716111288151</v>
+        <v>24.25576584762604</v>
       </c>
       <c r="F11">
-        <v>22.89601798021165</v>
+        <v>19.33658363333243</v>
       </c>
       <c r="G11">
-        <v>31.63276606041542</v>
+        <v>21.70967086247607</v>
       </c>
       <c r="H11">
-        <v>8.605542680279539</v>
+        <v>11.32739150924327</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.733900334038996</v>
+        <v>8.543841021650884</v>
       </c>
       <c r="M11">
-        <v>13.54240615216609</v>
+        <v>15.01088047483441</v>
       </c>
       <c r="N11">
-        <v>15.3794847093338</v>
+        <v>19.36283871517678</v>
       </c>
       <c r="O11">
-        <v>16.34206086507045</v>
+        <v>16.43954148886688</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.96164841142728</v>
+        <v>16.76861951177456</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.95354713580115</v>
+        <v>3.369839612814614</v>
       </c>
       <c r="E12">
-        <v>21.00647267885984</v>
+        <v>24.27094736145874</v>
       </c>
       <c r="F12">
-        <v>23.20165209776245</v>
+        <v>19.4034238706913</v>
       </c>
       <c r="G12">
-        <v>32.05900634975595</v>
+        <v>21.84651378363229</v>
       </c>
       <c r="H12">
-        <v>8.667375957787762</v>
+        <v>11.33072776966454</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.843396046958581</v>
+        <v>8.573658928608396</v>
       </c>
       <c r="M12">
-        <v>13.70659666222469</v>
+        <v>15.04004816937924</v>
       </c>
       <c r="N12">
-        <v>15.41046274338222</v>
+        <v>19.36511224925992</v>
       </c>
       <c r="O12">
-        <v>16.52890750126717</v>
+        <v>16.46901223623939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.91973501923198</v>
+        <v>16.75706070538549</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.94530406264395</v>
+        <v>3.366526770075327</v>
       </c>
       <c r="E13">
-        <v>20.98940297566594</v>
+        <v>24.2676639288702</v>
       </c>
       <c r="F13">
-        <v>23.13604755322815</v>
+        <v>19.38901042419662</v>
       </c>
       <c r="G13">
-        <v>31.96750031322263</v>
+        <v>21.81706846950559</v>
       </c>
       <c r="H13">
-        <v>8.654044469765669</v>
+        <v>11.32999363141433</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.819912127059583</v>
+        <v>8.567241816134935</v>
       </c>
       <c r="M13">
-        <v>13.67139049182011</v>
+        <v>15.03376061407585</v>
       </c>
       <c r="N13">
-        <v>15.40376061427008</v>
+        <v>19.36460709041437</v>
       </c>
       <c r="O13">
-        <v>16.48095304737472</v>
+        <v>16.46263955721902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78249972062843</v>
+        <v>16.7193669538065</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.918299513544231</v>
+        <v>3.355688503884687</v>
       </c>
       <c r="E14">
-        <v>20.93369117368934</v>
+        <v>24.25700859747806</v>
       </c>
       <c r="F14">
-        <v>22.92126153848952</v>
+        <v>19.34207432052893</v>
       </c>
       <c r="G14">
-        <v>31.6679649813959</v>
+        <v>21.72094062187344</v>
       </c>
       <c r="H14">
-        <v>8.610623123166144</v>
+        <v>11.32765894613615</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.742952748998526</v>
+        <v>8.546296247680948</v>
       </c>
       <c r="M14">
-        <v>13.55598417630314</v>
+        <v>15.01327749164515</v>
       </c>
       <c r="N14">
-        <v>15.38201956260265</v>
+        <v>19.36301876547827</v>
       </c>
       <c r="O14">
-        <v>16.35644037640192</v>
+        <v>16.44195448484212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.69802015607043</v>
+        <v>16.6962807912639</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.901664755391777</v>
+        <v>3.34902347559604</v>
       </c>
       <c r="E15">
-        <v>20.89953386481816</v>
+        <v>24.2505225352648</v>
       </c>
       <c r="F15">
-        <v>22.7890562080032</v>
+        <v>19.31337902917806</v>
       </c>
       <c r="G15">
-        <v>31.48363351487629</v>
+        <v>21.6619852607039</v>
       </c>
       <c r="H15">
-        <v>8.584069538251796</v>
+        <v>11.32627463990488</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.695526096471847</v>
+        <v>8.533453077423419</v>
       </c>
       <c r="M15">
-        <v>13.48483959837878</v>
+        <v>15.00074819689285</v>
       </c>
       <c r="N15">
-        <v>15.36879176980553</v>
+        <v>19.36209134515464</v>
       </c>
       <c r="O15">
-        <v>16.2812008119985</v>
+        <v>16.42935969691297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.20752683407738</v>
+        <v>16.5640520823714</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.80490737453059</v>
+        <v>3.310431605706726</v>
       </c>
       <c r="E16">
-        <v>20.70335782147931</v>
+        <v>24.21398352138808</v>
       </c>
       <c r="F16">
-        <v>22.04484474574792</v>
+        <v>19.14982141310291</v>
       </c>
       <c r="G16">
-        <v>30.41411792481179</v>
+        <v>21.32311412123898</v>
       </c>
       <c r="H16">
-        <v>8.432588891972287</v>
+        <v>11.31904447069679</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.41934682196718</v>
+        <v>8.459665392250713</v>
       </c>
       <c r="M16">
-        <v>13.14586661889842</v>
+        <v>14.92922537179976</v>
       </c>
       <c r="N16">
-        <v>15.29435845822099</v>
+        <v>19.35747592022611</v>
       </c>
       <c r="O16">
-        <v>15.84786071082341</v>
+        <v>16.35835644448779</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.90099262620053</v>
+        <v>16.48303120886884</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.74428045888053</v>
+        <v>3.28640833381453</v>
       </c>
       <c r="E17">
-        <v>20.58268827130679</v>
+        <v>24.19213787957298</v>
       </c>
       <c r="F17">
-        <v>21.61998770845801</v>
+        <v>19.05032605185605</v>
       </c>
       <c r="G17">
-        <v>29.74619825422416</v>
+        <v>21.1144457815001</v>
       </c>
       <c r="H17">
-        <v>8.340301359190851</v>
+        <v>11.31523750950469</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.245998015764117</v>
+        <v>8.414249121754244</v>
       </c>
       <c r="M17">
-        <v>12.9422085464564</v>
+        <v>14.885610932293</v>
       </c>
       <c r="N17">
-        <v>15.24992054255736</v>
+        <v>19.35527085906505</v>
       </c>
       <c r="O17">
-        <v>15.58015534376534</v>
+        <v>16.31586195558015</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.72263695295869</v>
+        <v>16.43648011472845</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.708945979511487</v>
+        <v>3.272465222663903</v>
       </c>
       <c r="E18">
-        <v>20.51319042274832</v>
+        <v>24.17978529689678</v>
       </c>
       <c r="F18">
-        <v>21.37360787101223</v>
+        <v>18.99342958238819</v>
       </c>
       <c r="G18">
-        <v>29.35767745932367</v>
+        <v>20.99419067416821</v>
       </c>
       <c r="H18">
-        <v>8.287467004776474</v>
+        <v>11.31327936347587</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.144852202957885</v>
+        <v>8.388079171889599</v>
       </c>
       <c r="M18">
-        <v>12.82393134336035</v>
+        <v>14.86062740445387</v>
       </c>
       <c r="N18">
-        <v>15.22481182151628</v>
+        <v>19.3542336852385</v>
       </c>
       <c r="O18">
-        <v>15.42552480713187</v>
+        <v>16.29181797792005</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.6619000650484</v>
+        <v>16.42072865502541</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.696903042773579</v>
+        <v>3.267723000564836</v>
       </c>
       <c r="E19">
-        <v>20.4896463930505</v>
+        <v>24.1756396985861</v>
       </c>
       <c r="F19">
-        <v>21.28984538712615</v>
+        <v>18.97422421057568</v>
       </c>
       <c r="G19">
-        <v>29.22538288822713</v>
+        <v>20.95343918456549</v>
       </c>
       <c r="H19">
-        <v>8.269621747545294</v>
+        <v>11.31265618016271</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.110358781765386</v>
+        <v>8.379210988350335</v>
       </c>
       <c r="M19">
-        <v>12.78369171211063</v>
+        <v>14.85218654402849</v>
       </c>
       <c r="N19">
-        <v>15.21638793094423</v>
+        <v>19.35392229826014</v>
       </c>
       <c r="O19">
-        <v>15.37306063505975</v>
+        <v>16.28374604330234</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.9338359911693</v>
+        <v>16.49165117016836</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.750782338927945</v>
+        <v>3.288978704058494</v>
       </c>
       <c r="E20">
-        <v>20.59554386426407</v>
+        <v>24.19444146530543</v>
       </c>
       <c r="F20">
-        <v>21.6654235893979</v>
+        <v>19.06088376176084</v>
       </c>
       <c r="G20">
-        <v>29.81774954759506</v>
+        <v>21.13668437146926</v>
       </c>
       <c r="H20">
-        <v>8.350100227014442</v>
+        <v>11.31561881744486</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.264600378314313</v>
+        <v>8.419088866870418</v>
       </c>
       <c r="M20">
-        <v>12.96400671356199</v>
+        <v>14.89024330370871</v>
       </c>
       <c r="N20">
-        <v>15.25460439563895</v>
+        <v>19.35548169249602</v>
       </c>
       <c r="O20">
-        <v>15.6087214397626</v>
+        <v>16.32034455440326</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.82289647498569</v>
+        <v>16.73043811103315</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.926250942461682</v>
+        <v>3.358877454459615</v>
       </c>
       <c r="E21">
-        <v>20.95006193667119</v>
+        <v>24.26012987529717</v>
       </c>
       <c r="F21">
-        <v>22.98448325633441</v>
+        <v>19.35584936720245</v>
       </c>
       <c r="G21">
-        <v>31.75612433896187</v>
+        <v>21.74919145586733</v>
       </c>
       <c r="H21">
-        <v>8.623368070062416</v>
+        <v>11.32833516780637</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.765617352613019</v>
+        <v>8.552451302355808</v>
       </c>
       <c r="M21">
-        <v>13.58997655759234</v>
+        <v>15.01929032775934</v>
       </c>
       <c r="N21">
-        <v>15.38838684667524</v>
+        <v>19.3634758235787</v>
       </c>
       <c r="O21">
-        <v>16.39248041576854</v>
+        <v>16.44801451517582</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.3852581942396</v>
+        <v>16.88664260204531</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.036743982949798</v>
+        <v>3.403390785132123</v>
       </c>
       <c r="E22">
-        <v>21.18038828988436</v>
+        <v>24.30488801721097</v>
       </c>
       <c r="F22">
-        <v>23.86492124898114</v>
+        <v>19.55111969340626</v>
       </c>
       <c r="G22">
-        <v>32.9845485827774</v>
+        <v>22.14631560623758</v>
       </c>
       <c r="H22">
-        <v>8.803930064585327</v>
+        <v>11.33869547876124</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.08022566633567</v>
+        <v>8.639031151307828</v>
       </c>
       <c r="M22">
-        <v>14.06139947652473</v>
+        <v>15.10441612200784</v>
       </c>
       <c r="N22">
-        <v>15.4798173728046</v>
+        <v>19.37073833019564</v>
       </c>
       <c r="O22">
-        <v>17.01365159761322</v>
+        <v>16.53484827494316</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.08684489030448</v>
+        <v>16.8032746662462</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.978157168358559</v>
+        <v>3.379742586351906</v>
       </c>
       <c r="E23">
-        <v>21.05761045417066</v>
+        <v>24.28083576865564</v>
       </c>
       <c r="F23">
-        <v>23.39763495785325</v>
+        <v>19.44669393127981</v>
       </c>
       <c r="G23">
-        <v>32.33240887101199</v>
+        <v>21.93470534362979</v>
       </c>
       <c r="H23">
-        <v>8.707391372427537</v>
+        <v>11.33297910988296</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.91348727730624</v>
+        <v>8.592882340612476</v>
       </c>
       <c r="M23">
-        <v>13.81164827442386</v>
+        <v>15.05891704727192</v>
       </c>
       <c r="N23">
-        <v>15.43065455430881</v>
+        <v>19.36667673124533</v>
       </c>
       <c r="O23">
-        <v>16.67215447603447</v>
+        <v>16.48820027592404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.91899411921392</v>
+        <v>16.48775399228936</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.747844331030344</v>
+        <v>3.287817049653147</v>
       </c>
       <c r="E24">
-        <v>20.58973222856939</v>
+        <v>24.19339936944375</v>
       </c>
       <c r="F24">
-        <v>21.64488863585757</v>
+        <v>19.05610966683134</v>
       </c>
       <c r="G24">
-        <v>29.78541530475105</v>
+        <v>21.12663119228896</v>
       </c>
       <c r="H24">
-        <v>8.345669461642052</v>
+        <v>11.31544570990978</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.25619487625664</v>
+        <v>8.416901001776724</v>
       </c>
       <c r="M24">
-        <v>12.95415546749372</v>
+        <v>14.88814872374909</v>
       </c>
       <c r="N24">
-        <v>15.25248545737407</v>
+        <v>19.35538565635544</v>
       </c>
       <c r="O24">
-        <v>15.59580895269653</v>
+        <v>16.31831676539738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.5815625233703</v>
+        <v>16.14950651031204</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.48175348216512</v>
+        <v>3.183895273070362</v>
       </c>
       <c r="E25">
-        <v>20.08188901787938</v>
+        <v>24.1072434077814</v>
       </c>
       <c r="F25">
-        <v>19.81209311012246</v>
+        <v>18.64770387971093</v>
       </c>
       <c r="G25">
-        <v>26.87182687136083</v>
+        <v>20.24676703261735</v>
       </c>
       <c r="H25">
-        <v>7.965106930653774</v>
+        <v>11.30538860066325</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.492196630242113</v>
+        <v>8.225349361575757</v>
       </c>
       <c r="M25">
-        <v>12.07146816153105</v>
+        <v>14.70793173738156</v>
       </c>
       <c r="N25">
-        <v>15.07753876166429</v>
+        <v>19.35205305502728</v>
       </c>
       <c r="O25">
-        <v>14.45703345599122</v>
+        <v>16.15035033855728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.90384434493724</v>
+        <v>14.53368042231712</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.103572750118113</v>
+        <v>3.271082347175862</v>
       </c>
       <c r="E2">
-        <v>24.05113964721559</v>
+        <v>19.70830018539301</v>
       </c>
       <c r="F2">
-        <v>18.36040925798012</v>
+        <v>18.40204002246795</v>
       </c>
       <c r="G2">
-        <v>19.59819184780265</v>
+        <v>24.67328518092355</v>
       </c>
       <c r="H2">
-        <v>11.30564026009323</v>
+        <v>7.694537719309234</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.083661080885756</v>
+        <v>7.882673665074169</v>
       </c>
       <c r="M2">
-        <v>14.57929188242424</v>
+        <v>11.3879732361957</v>
       </c>
       <c r="N2">
-        <v>19.35730269148822</v>
+        <v>14.96356168675925</v>
       </c>
       <c r="O2">
-        <v>16.04049802537432</v>
+        <v>13.60225259466692</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.74027972872933</v>
+        <v>13.78685494604933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.046928811683786</v>
+        <v>3.119432888727301</v>
       </c>
       <c r="E3">
-        <v>24.01784591639422</v>
+        <v>19.45693536247865</v>
       </c>
       <c r="F3">
-        <v>18.1752103667262</v>
+        <v>17.41260055742673</v>
       </c>
       <c r="G3">
-        <v>19.1616636218117</v>
+        <v>23.11494046733358</v>
       </c>
       <c r="H3">
-        <v>11.31059940016692</v>
+        <v>7.517932443737774</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.987669091103283</v>
+        <v>7.4406709520414</v>
       </c>
       <c r="M3">
-        <v>14.49494885755195</v>
+        <v>10.90614471704377</v>
       </c>
       <c r="N3">
-        <v>19.36571072732071</v>
+        <v>14.89555354516854</v>
       </c>
       <c r="O3">
-        <v>15.97497286521739</v>
+        <v>13.01597294257064</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.64156227337502</v>
+        <v>13.31143803061267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.011120286658736</v>
+        <v>3.022088231406848</v>
       </c>
       <c r="E4">
-        <v>23.99978604196047</v>
+        <v>19.30404743940498</v>
       </c>
       <c r="F4">
-        <v>18.06654879506367</v>
+        <v>16.79021275140852</v>
       </c>
       <c r="G4">
-        <v>18.89634775773411</v>
+        <v>22.12318651025403</v>
       </c>
       <c r="H4">
-        <v>11.31600835068109</v>
+        <v>7.413086275755329</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.928894326876406</v>
+        <v>7.155235558057354</v>
       </c>
       <c r="M4">
-        <v>14.44466226350906</v>
+        <v>10.60208939682619</v>
       </c>
       <c r="N4">
-        <v>19.3732801117641</v>
+        <v>14.85833791921676</v>
       </c>
       <c r="O4">
-        <v>15.93922921968092</v>
+        <v>12.65386982881711</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.60180526187795</v>
+        <v>13.1136861263558</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.99627903933258</v>
+        <v>2.98138258600129</v>
       </c>
       <c r="E5">
-        <v>23.99303325685025</v>
+        <v>19.24219391928171</v>
       </c>
       <c r="F5">
-        <v>18.02359142012745</v>
+        <v>16.53318254016017</v>
       </c>
       <c r="G5">
-        <v>18.78910173280559</v>
+        <v>21.71058591089236</v>
       </c>
       <c r="H5">
-        <v>11.31880718484399</v>
+        <v>7.371301328472074</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.905007395738019</v>
+        <v>7.03543320555534</v>
       </c>
       <c r="M5">
-        <v>14.42456244208276</v>
+        <v>10.47628967138233</v>
       </c>
       <c r="N5">
-        <v>19.37697210017775</v>
+        <v>14.84431184977531</v>
       </c>
       <c r="O5">
-        <v>15.92580431028496</v>
+        <v>12.50600263963355</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.59523326973685</v>
+        <v>13.08061439826326</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.99379991732151</v>
+        <v>2.974561704960717</v>
       </c>
       <c r="E6">
-        <v>23.99194882712109</v>
+        <v>19.23195281531196</v>
       </c>
       <c r="F6">
-        <v>18.01653977979324</v>
+        <v>16.49030840674583</v>
       </c>
       <c r="G6">
-        <v>18.77135188774542</v>
+        <v>21.6415747300616</v>
       </c>
       <c r="H6">
-        <v>11.31930784457573</v>
+        <v>7.364420853415981</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.901045536752958</v>
+        <v>7.015331231774905</v>
       </c>
       <c r="M6">
-        <v>14.42124901122462</v>
+        <v>10.45529168506948</v>
       </c>
       <c r="N6">
-        <v>19.37762189945694</v>
+        <v>14.84205156894324</v>
       </c>
       <c r="O6">
-        <v>15.9236443441306</v>
+        <v>12.48143795258686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.64102413559859</v>
+        <v>13.30878701205488</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.010921127324259</v>
+        <v>3.02154341991762</v>
       </c>
       <c r="E7">
-        <v>23.99969250487188</v>
+        <v>19.30321132910251</v>
       </c>
       <c r="F7">
-        <v>18.06596403204027</v>
+        <v>16.78675963826966</v>
       </c>
       <c r="G7">
-        <v>18.89489761584381</v>
+        <v>22.11765575979027</v>
       </c>
       <c r="H7">
-        <v>11.31604368900212</v>
+        <v>7.412518891802926</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.928571889040463</v>
+        <v>7.153633902180119</v>
       </c>
       <c r="M7">
-        <v>14.44438958203934</v>
+        <v>10.60040024864759</v>
       </c>
       <c r="N7">
-        <v>19.37332744104917</v>
+        <v>14.85814414850507</v>
       </c>
       <c r="O7">
-        <v>15.93904353238325</v>
+        <v>12.6518765664062</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.8471166059098</v>
+        <v>14.27979764359813</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.084261174704217</v>
+        <v>3.21968660288464</v>
       </c>
       <c r="E8">
-        <v>24.03917010556239</v>
+        <v>19.62137917196496</v>
       </c>
       <c r="F8">
-        <v>18.29553692024085</v>
+        <v>18.0641507569581</v>
       </c>
       <c r="G8">
-        <v>19.44722664546512</v>
+        <v>24.1433875516161</v>
       </c>
       <c r="H8">
-        <v>11.30685970870024</v>
+        <v>7.63292236359322</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.050542570717068</v>
+        <v>7.733209945858195</v>
       </c>
       <c r="M8">
-        <v>14.54990821463779</v>
+        <v>11.22363808717506</v>
       </c>
       <c r="N8">
-        <v>19.35970359116248</v>
+        <v>14.93916868854156</v>
       </c>
       <c r="O8">
-        <v>16.01698100336662</v>
+        <v>13.40067307440463</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26302688203869</v>
+        <v>16.04218105211043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.219513335942231</v>
+        <v>3.573713002776271</v>
       </c>
       <c r="E9">
-        <v>24.13514709107869</v>
+        <v>20.25311476700383</v>
       </c>
       <c r="F9">
-        <v>18.78334674531012</v>
+        <v>20.4392995623248</v>
       </c>
       <c r="G9">
-        <v>20.54370853690504</v>
+        <v>27.8755705179643</v>
       </c>
       <c r="H9">
-        <v>11.30758921775757</v>
+        <v>8.091899920941144</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.290031922164227</v>
+        <v>8.756884284595188</v>
       </c>
       <c r="M9">
-        <v>14.76805025609931</v>
+        <v>12.37428439800319</v>
       </c>
       <c r="N9">
-        <v>19.35198520176308</v>
+        <v>15.13416475329931</v>
       </c>
       <c r="O9">
-        <v>16.20482648426681</v>
+        <v>14.84352697144855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.57330286342478</v>
+        <v>17.24222551871695</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.313155632841554</v>
+        <v>3.811762296622762</v>
       </c>
       <c r="E10">
-        <v>24.21650483038011</v>
+        <v>20.71711267993108</v>
       </c>
       <c r="F10">
-        <v>19.16121779129206</v>
+        <v>22.09304874852378</v>
       </c>
       <c r="G10">
-        <v>21.34688898336983</v>
+        <v>30.48974339368476</v>
       </c>
       <c r="H10">
-        <v>11.31951020474636</v>
+        <v>8.443152166645186</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.464840702678739</v>
+        <v>9.438931882695746</v>
       </c>
       <c r="M10">
-        <v>14.93421552576388</v>
+        <v>13.16894929668059</v>
       </c>
       <c r="N10">
-        <v>19.35775878306458</v>
+        <v>15.29949016285209</v>
       </c>
       <c r="O10">
-        <v>16.3632587653782</v>
+        <v>15.87831679828549</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.71495200648786</v>
+        <v>17.7663694568189</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.354415500595632</v>
+        <v>3.915123991355306</v>
       </c>
       <c r="E11">
-        <v>24.25576584762604</v>
+        <v>20.92716111288154</v>
       </c>
       <c r="F11">
-        <v>19.33658363333243</v>
+        <v>22.89601798021167</v>
       </c>
       <c r="G11">
-        <v>21.70967086247607</v>
+        <v>31.63276606041542</v>
       </c>
       <c r="H11">
-        <v>11.32739150924327</v>
+        <v>8.605542680279539</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.543841021650884</v>
+        <v>9.733900334038996</v>
       </c>
       <c r="M11">
-        <v>15.01088047483441</v>
+        <v>13.54240615216612</v>
       </c>
       <c r="N11">
-        <v>19.36283871517678</v>
+        <v>15.37948470933388</v>
       </c>
       <c r="O11">
-        <v>16.43954148886688</v>
+        <v>16.34206086507045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.76861951177456</v>
+        <v>17.96164841142728</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.369839612814614</v>
+        <v>3.953547135801111</v>
       </c>
       <c r="E12">
-        <v>24.27094736145874</v>
+        <v>21.00647267885994</v>
       </c>
       <c r="F12">
-        <v>19.4034238706913</v>
+        <v>23.20165209776247</v>
       </c>
       <c r="G12">
-        <v>21.84651378363229</v>
+        <v>32.05900634975602</v>
       </c>
       <c r="H12">
-        <v>11.33072776966454</v>
+        <v>8.667375957787755</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.573658928608396</v>
+        <v>9.843396046958661</v>
       </c>
       <c r="M12">
-        <v>15.04004816937924</v>
+        <v>13.70659666222472</v>
       </c>
       <c r="N12">
-        <v>19.36511224925992</v>
+        <v>15.41046274338224</v>
       </c>
       <c r="O12">
-        <v>16.46901223623939</v>
+        <v>16.52890750126722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.75706070538549</v>
+        <v>17.91973501923198</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.366526770075327</v>
+        <v>3.945304062644034</v>
       </c>
       <c r="E13">
-        <v>24.2676639288702</v>
+        <v>20.9894029756658</v>
       </c>
       <c r="F13">
-        <v>19.38901042419662</v>
+        <v>23.13604755322817</v>
       </c>
       <c r="G13">
-        <v>21.81706846950559</v>
+        <v>31.96750031322269</v>
       </c>
       <c r="H13">
-        <v>11.32999363141433</v>
+        <v>8.654044469765674</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.567241816134935</v>
+        <v>9.819912127059597</v>
       </c>
       <c r="M13">
-        <v>15.03376061407585</v>
+        <v>13.67139049182014</v>
       </c>
       <c r="N13">
-        <v>19.36460709041437</v>
+        <v>15.40376061427006</v>
       </c>
       <c r="O13">
-        <v>16.46263955721902</v>
+        <v>16.4809530473747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7193669538065</v>
+        <v>17.78249972062841</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.355688503884687</v>
+        <v>3.918299513544278</v>
       </c>
       <c r="E14">
-        <v>24.25700859747806</v>
+        <v>20.93369117368943</v>
       </c>
       <c r="F14">
-        <v>19.34207432052893</v>
+        <v>22.92126153848953</v>
       </c>
       <c r="G14">
-        <v>21.72094062187344</v>
+        <v>31.66796498139594</v>
       </c>
       <c r="H14">
-        <v>11.32765894613615</v>
+        <v>8.610623123166144</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.546296247680948</v>
+        <v>9.742952748998524</v>
       </c>
       <c r="M14">
-        <v>15.01327749164515</v>
+        <v>13.55598417630314</v>
       </c>
       <c r="N14">
-        <v>19.36301876547827</v>
+        <v>15.38201956260269</v>
       </c>
       <c r="O14">
-        <v>16.44195448484212</v>
+        <v>16.35644037640193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.6962807912639</v>
+        <v>17.69802015607042</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.34902347559604</v>
+        <v>3.901664755391933</v>
       </c>
       <c r="E15">
-        <v>24.2505225352648</v>
+        <v>20.89953386481811</v>
       </c>
       <c r="F15">
-        <v>19.31337902917806</v>
+        <v>22.78905620800317</v>
       </c>
       <c r="G15">
-        <v>21.6619852607039</v>
+        <v>31.48363351487626</v>
       </c>
       <c r="H15">
-        <v>11.32627463990488</v>
+        <v>8.584069538251814</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.533453077423419</v>
+        <v>9.695526096471836</v>
       </c>
       <c r="M15">
-        <v>15.00074819689285</v>
+        <v>13.48483959837875</v>
       </c>
       <c r="N15">
-        <v>19.36209134515464</v>
+        <v>15.36879176980554</v>
       </c>
       <c r="O15">
-        <v>16.42935969691297</v>
+        <v>16.2812008119985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.5640520823714</v>
+        <v>17.20752683407737</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.310431605706726</v>
+        <v>3.804907374530728</v>
       </c>
       <c r="E16">
-        <v>24.21398352138808</v>
+        <v>20.70335782147937</v>
       </c>
       <c r="F16">
-        <v>19.14982141310291</v>
+        <v>22.04484474574791</v>
       </c>
       <c r="G16">
-        <v>21.32311412123898</v>
+        <v>30.41411792481185</v>
       </c>
       <c r="H16">
-        <v>11.31904447069679</v>
+        <v>8.432588891972269</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.459665392250713</v>
+        <v>9.419346821967171</v>
       </c>
       <c r="M16">
-        <v>14.92922537179976</v>
+        <v>13.14586661889844</v>
       </c>
       <c r="N16">
-        <v>19.35747592022611</v>
+        <v>15.29435845822096</v>
       </c>
       <c r="O16">
-        <v>16.35835644448779</v>
+        <v>15.84786071082337</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48303120886884</v>
+        <v>16.90099262620058</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.28640833381453</v>
+        <v>3.744280458880517</v>
       </c>
       <c r="E17">
-        <v>24.19213787957298</v>
+        <v>20.5826882713071</v>
       </c>
       <c r="F17">
-        <v>19.05032605185605</v>
+        <v>21.61998770845799</v>
       </c>
       <c r="G17">
-        <v>21.1144457815001</v>
+        <v>29.74619825422414</v>
       </c>
       <c r="H17">
-        <v>11.31523750950469</v>
+        <v>8.340301359190807</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.414249121754244</v>
+        <v>9.245998015764169</v>
       </c>
       <c r="M17">
-        <v>14.885610932293</v>
+        <v>12.9422085464564</v>
       </c>
       <c r="N17">
-        <v>19.35527085906505</v>
+        <v>15.24992054255743</v>
       </c>
       <c r="O17">
-        <v>16.31586195558015</v>
+        <v>15.58015534376533</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.43648011472845</v>
+        <v>16.72263695295868</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.272465222663903</v>
+        <v>3.708945979511541</v>
       </c>
       <c r="E18">
-        <v>24.17978529689678</v>
+        <v>20.51319042274842</v>
       </c>
       <c r="F18">
-        <v>18.99342958238819</v>
+        <v>21.37360787101224</v>
       </c>
       <c r="G18">
-        <v>20.99419067416821</v>
+        <v>29.35767745932372</v>
       </c>
       <c r="H18">
-        <v>11.31327936347587</v>
+        <v>8.287467004776397</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.388079171889599</v>
+        <v>9.144852202957876</v>
       </c>
       <c r="M18">
-        <v>14.86062740445387</v>
+        <v>12.82393134336036</v>
       </c>
       <c r="N18">
-        <v>19.3542336852385</v>
+        <v>15.22481182151622</v>
       </c>
       <c r="O18">
-        <v>16.29181797792005</v>
+        <v>15.42552480713187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.42072865502541</v>
+        <v>16.66190006504845</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.267723000564836</v>
+        <v>3.696903042773519</v>
       </c>
       <c r="E19">
-        <v>24.1756396985861</v>
+        <v>20.48964639305078</v>
       </c>
       <c r="F19">
-        <v>18.97422421057568</v>
+        <v>21.28984538712614</v>
       </c>
       <c r="G19">
-        <v>20.95343918456549</v>
+        <v>29.22538288822716</v>
       </c>
       <c r="H19">
-        <v>11.31265618016271</v>
+        <v>8.269621747545264</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.379210988350335</v>
+        <v>9.110358781765363</v>
       </c>
       <c r="M19">
-        <v>14.85218654402849</v>
+        <v>12.78369171211067</v>
       </c>
       <c r="N19">
-        <v>19.35392229826014</v>
+        <v>15.21638793094426</v>
       </c>
       <c r="O19">
-        <v>16.28374604330234</v>
+        <v>15.37306063505974</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.49165117016836</v>
+        <v>16.93383599116933</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.288978704058494</v>
+        <v>3.750782338928044</v>
       </c>
       <c r="E20">
-        <v>24.19444146530543</v>
+        <v>20.59554386426413</v>
       </c>
       <c r="F20">
-        <v>19.06088376176084</v>
+        <v>21.66542358939789</v>
       </c>
       <c r="G20">
-        <v>21.13668437146926</v>
+        <v>29.8177495475951</v>
       </c>
       <c r="H20">
-        <v>11.31561881744486</v>
+        <v>8.350100227014398</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.419088866870418</v>
+        <v>9.264600378314331</v>
       </c>
       <c r="M20">
-        <v>14.89024330370871</v>
+        <v>12.96400671356199</v>
       </c>
       <c r="N20">
-        <v>19.35548169249602</v>
+        <v>15.2546043956389</v>
       </c>
       <c r="O20">
-        <v>16.32034455440326</v>
+        <v>15.60872143976258</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.73043811103315</v>
+        <v>17.82289647498574</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.358877454459615</v>
+        <v>3.926250942461604</v>
       </c>
       <c r="E21">
-        <v>24.26012987529717</v>
+        <v>20.95006193667106</v>
       </c>
       <c r="F21">
-        <v>19.35584936720245</v>
+        <v>22.98448325633439</v>
       </c>
       <c r="G21">
-        <v>21.74919145586733</v>
+        <v>31.75612433896185</v>
       </c>
       <c r="H21">
-        <v>11.32833516780637</v>
+        <v>8.623368070062448</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.552451302355808</v>
+        <v>9.765617352613006</v>
       </c>
       <c r="M21">
-        <v>15.01929032775934</v>
+        <v>13.58997655759231</v>
       </c>
       <c r="N21">
-        <v>19.3634758235787</v>
+        <v>15.38838684667525</v>
       </c>
       <c r="O21">
-        <v>16.44801451517582</v>
+        <v>16.39248041576856</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.88664260204531</v>
+        <v>18.3852581942396</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.403390785132123</v>
+        <v>4.036743982949867</v>
       </c>
       <c r="E22">
-        <v>24.30488801721097</v>
+        <v>21.18038828988427</v>
       </c>
       <c r="F22">
-        <v>19.55111969340626</v>
+        <v>23.86492124898122</v>
       </c>
       <c r="G22">
-        <v>22.14631560623758</v>
+        <v>32.98454858277747</v>
       </c>
       <c r="H22">
-        <v>11.33869547876124</v>
+        <v>8.803930064585336</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.639031151307828</v>
+        <v>10.08022566633566</v>
       </c>
       <c r="M22">
-        <v>15.10441612200784</v>
+        <v>14.06139947652474</v>
       </c>
       <c r="N22">
-        <v>19.37073833019564</v>
+        <v>15.47981737280456</v>
       </c>
       <c r="O22">
-        <v>16.53484827494316</v>
+        <v>17.01365159761328</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.8032746662462</v>
+        <v>18.08684489030449</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.379742586351906</v>
+        <v>3.978157168358579</v>
       </c>
       <c r="E23">
-        <v>24.28083576865564</v>
+        <v>21.05761045417074</v>
       </c>
       <c r="F23">
-        <v>19.44669393127981</v>
+        <v>23.39763495785327</v>
       </c>
       <c r="G23">
-        <v>21.93470534362979</v>
+        <v>32.33240887101201</v>
       </c>
       <c r="H23">
-        <v>11.33297910988296</v>
+        <v>8.707391372427537</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.592882340612476</v>
+        <v>9.913487277306254</v>
       </c>
       <c r="M23">
-        <v>15.05891704727192</v>
+        <v>13.81164827442387</v>
       </c>
       <c r="N23">
-        <v>19.36667673124533</v>
+        <v>15.43065455430881</v>
       </c>
       <c r="O23">
-        <v>16.48820027592404</v>
+        <v>16.67215447603449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.48775399228936</v>
+        <v>16.9189941192139</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.287817049653147</v>
+        <v>3.747844331030383</v>
       </c>
       <c r="E24">
-        <v>24.19339936944375</v>
+        <v>20.58973222856948</v>
       </c>
       <c r="F24">
-        <v>19.05610966683134</v>
+        <v>21.64488863585754</v>
       </c>
       <c r="G24">
-        <v>21.12663119228896</v>
+        <v>29.78541530475104</v>
       </c>
       <c r="H24">
-        <v>11.31544570990978</v>
+        <v>8.345669461642045</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.416901001776724</v>
+        <v>9.256194876256645</v>
       </c>
       <c r="M24">
-        <v>14.88814872374909</v>
+        <v>12.95415546749372</v>
       </c>
       <c r="N24">
-        <v>19.35538565635544</v>
+        <v>15.25248545737405</v>
       </c>
       <c r="O24">
-        <v>16.31831676539738</v>
+        <v>15.59580895269651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.14950651031204</v>
+        <v>15.58156252337029</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.183895273070362</v>
+        <v>3.481753482165189</v>
       </c>
       <c r="E25">
-        <v>24.1072434077814</v>
+        <v>20.08188901787938</v>
       </c>
       <c r="F25">
-        <v>18.64770387971093</v>
+        <v>19.81209311012247</v>
       </c>
       <c r="G25">
-        <v>20.24676703261735</v>
+        <v>26.87182687136082</v>
       </c>
       <c r="H25">
-        <v>11.30538860066325</v>
+        <v>7.96510693065379</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.225349361575757</v>
+        <v>8.492196630242098</v>
       </c>
       <c r="M25">
-        <v>14.70793173738156</v>
+        <v>12.07146816153105</v>
       </c>
       <c r="N25">
-        <v>19.35205305502728</v>
+        <v>15.07753876166428</v>
       </c>
       <c r="O25">
-        <v>16.15035033855728</v>
+        <v>14.45703345599123</v>
       </c>
     </row>
   </sheetData>
